--- a/we/we.xlsx
+++ b/we/we.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanlinpeng/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mtdp/Documents/xishige/xishige/we/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A8AE21-E568-FF4A-9586-B4F65EEDB4F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" xr2:uid="{79A653EB-7030-6B4B-A205-79DE9C62DC5D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800"/>
   </bookViews>
   <sheets>
     <sheet name="转账明细" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>转出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,14 +73,55 @@
   </si>
   <si>
     <t>首付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店面分成还款</t>
+    <rPh sb="0" eb="1">
+      <t>dian'main</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huan'kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共还差：</t>
+    <rPh sb="0" eb="1">
+      <t>zong'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hai'cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二小</t>
+    <rPh sb="0" eb="1">
+      <t>er'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'zhang</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,6 +132,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -110,38 +165,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -153,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,14 +251,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,34 +582,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C396FFA-7785-1E41-BA66-8FD490A3D8D3}">
-  <dimension ref="C9:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C9:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="3:10">
-      <c r="C9" s="13" t="s">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="H9" s="13" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="H9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="3:10">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>43575</v>
       </c>
@@ -566,14 +631,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="3:10">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
         <v>43677</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="13">
         <v>870000</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -589,14 +654,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:10">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
         <v>43702</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="13">
         <v>50000</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="3"/>
@@ -610,14 +675,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:10">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>43708</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="13">
         <v>40000</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="3"/>
@@ -631,14 +696,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:10">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
         <v>43714</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="13">
         <v>40000</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="3"/>
@@ -652,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:10">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
         <v>43718</v>
       </c>
@@ -673,7 +738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:10">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
         <v>43725</v>
       </c>
@@ -692,7 +757,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="3:9">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
         <v>43755</v>
       </c>
@@ -711,7 +776,7 @@
         <v>1930000</v>
       </c>
     </row>
-    <row r="18" spans="3:9">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
         <v>43769</v>
       </c>
@@ -725,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:9">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="2">
         <v>43770</v>
       </c>
@@ -739,7 +804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:9">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
         <v>43771</v>
       </c>
@@ -753,7 +818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="3:9">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C21" s="2">
         <v>43774</v>
       </c>
@@ -767,27 +832,62 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:9">
-      <c r="C22" s="14">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="2">
         <v>43491</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="5">
         <v>30000</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="3:9">
-      <c r="C23" s="6" t="s">
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="2">
+        <v>43921</v>
+      </c>
+      <c r="D23" s="5">
+        <v>40000</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="18">
+        <v>43951</v>
+      </c>
+      <c r="D24" s="14">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="7">
-        <f>SUM(D10:D22)</f>
-        <v>1432000</v>
-      </c>
-      <c r="E23" s="7"/>
+      <c r="D25" s="7">
+        <f>SUM(D10:D24)</f>
+        <v>1492000</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="H25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="16">
+        <f>I17-D25</f>
+        <v>438000</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="C10:F13">

--- a/we/we.xlsx
+++ b/we/we.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>转出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,20 @@
     <t>转账</t>
     <rPh sb="0" eb="1">
       <t>zhuan'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二小</t>
+    <rPh sb="0" eb="1">
+      <t>er'xaio</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅小</t>
+    <rPh sb="0" eb="1">
+      <t>mei'xiao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,13 +274,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:J25"/>
+  <dimension ref="C9:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,17 +612,17 @@
   </cols>
   <sheetData>
     <row r="9" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="H9" s="17" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="H9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
@@ -859,7 +873,7 @@
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>43951</v>
       </c>
       <c r="D24" s="14">
@@ -868,25 +882,49 @@
       <c r="E24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="17">
+        <v>44046</v>
+      </c>
+      <c r="D25" s="14">
+        <v>15000</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="17">
+        <v>44081</v>
+      </c>
+      <c r="D26" s="14">
+        <v>70000</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
-        <f>SUM(D10:D24)</f>
-        <v>1492000</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="H25" s="16" t="s">
+      <c r="D27" s="7">
+        <f>SUM(D10:D26)</f>
+        <v>1577000</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="H27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="16">
-        <f>I17-D25</f>
-        <v>438000</v>
+      <c r="I27" s="16">
+        <f>I17-D27</f>
+        <v>353000</v>
       </c>
     </row>
   </sheetData>
